--- a/config_7.20/activity_exchange_server.xlsx
+++ b/config_7.20/activity_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="378">
   <si>
     <t>id|</t>
   </si>
@@ -1562,16 +1562,64 @@
     <t>1800,</t>
   </si>
   <si>
-    <t>100,</t>
-  </si>
-  <si>
-    <t>"obj_10_coupon",</t>
+    <t>"prop_web_chip_huafei","prop_grade",</t>
+  </si>
+  <si>
+    <t>100,12,</t>
+  </si>
+  <si>
+    <t>600,</t>
+  </si>
+  <si>
+    <t>"obj_10_coupon","prop_grade",</t>
+  </si>
+  <si>
+    <t>1,20,</t>
+  </si>
+  <si>
+    <t>"fish_coin","prop_grade",</t>
+  </si>
+  <si>
+    <t>500000,60,</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_grade",</t>
+  </si>
+  <si>
+    <t>1000000,120,</t>
+  </si>
+  <si>
+    <t>"shop_gold_sum","prop_grade",</t>
+  </si>
+  <si>
+    <t>2000,240,</t>
   </si>
   <si>
     <t>水晶虾饺</t>
   </si>
   <si>
+    <t>prop_grade,</t>
+  </si>
+  <si>
+    <t>720,</t>
+  </si>
+  <si>
+    <t>10000000,1000,</t>
+  </si>
+  <si>
+    <t>1600,</t>
+  </si>
+  <si>
+    <t>80000,</t>
+  </si>
+  <si>
+    <t>20000000,2400,</t>
+  </si>
+  <si>
     <t>麻辣小龙虾尾</t>
+  </si>
+  <si>
+    <t>150000,</t>
   </si>
   <si>
     <t>act_id|兑换id</t>
@@ -1634,10 +1682,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1698,43 +1746,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1749,7 +1761,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1757,9 +1776,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1771,16 +1790,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1795,15 +1813,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1817,15 +1852,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1833,9 +1882,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1904,139 +1952,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2054,7 +1976,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2066,7 +2078,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2121,6 +2169,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2140,25 +2223,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2180,26 +2245,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2209,10 +2257,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2221,133 +2269,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -2838,10 +2886,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomLeft" activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4757,8 +4805,6 @@
       <c r="E60" s="35">
         <v>1627315199</v>
       </c>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
       <c r="H60" s="47" t="s">
         <v>39</v>
       </c>
@@ -5339,12 +5385,12 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M393"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B363" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E366" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A393" sqref="A393"/>
+      <selection pane="bottomRight" activeCell="K384" sqref="K384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15144,13 +15190,13 @@
         <v>313</v>
       </c>
       <c r="F384" s="27" t="s">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="G384" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="H384" s="1">
-        <v>600</v>
+        <v>347</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="J384" s="1">
         <v>1</v>
@@ -15170,13 +15216,13 @@
         <v>313</v>
       </c>
       <c r="F385" s="19" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G385" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H385" s="1">
-        <v>1000</v>
+        <v>350</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="386" spans="1:10">
@@ -15193,13 +15239,13 @@
         <v>313</v>
       </c>
       <c r="F386" s="19" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="G386" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H386" s="1">
-        <v>3000</v>
+        <v>352</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="J386" s="1">
         <v>1</v>
@@ -15219,13 +15265,13 @@
         <v>313</v>
       </c>
       <c r="F387" s="27" t="s">
-        <v>163</v>
+        <v>353</v>
       </c>
       <c r="G387" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H387" s="1">
-        <v>6000</v>
+        <v>354</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="J387" s="1">
         <v>3</v>
@@ -15245,13 +15291,13 @@
         <v>313</v>
       </c>
       <c r="F388" s="27" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="G388" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="H388" s="1">
-        <v>12000</v>
+        <v>356</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="J388" s="1">
         <v>1</v>
@@ -15271,10 +15317,16 @@
         <v>313</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H389" s="1">
-        <v>36000</v>
+        <v>357</v>
+      </c>
+      <c r="F389" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G389" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="I389" s="1">
         <v>1</v>
@@ -15294,13 +15346,13 @@
         <v>313</v>
       </c>
       <c r="F390" s="27" t="s">
-        <v>163</v>
+        <v>353</v>
       </c>
       <c r="G390" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H390" s="1">
-        <v>50000</v>
+        <v>360</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="J390" s="1">
         <v>3</v>
@@ -15322,8 +15374,14 @@
       <c r="E391" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H391" s="1">
-        <v>80000</v>
+      <c r="F391" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G391" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="I391" s="1">
         <v>1</v>
@@ -15343,13 +15401,13 @@
         <v>313</v>
       </c>
       <c r="F392" s="19" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="G392" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H392" s="1">
-        <v>120000</v>
+        <v>363</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -15366,10 +15424,16 @@
         <v>313</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H393" s="1">
-        <v>150000</v>
+        <v>364</v>
+      </c>
+      <c r="F393" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G393" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="I393" s="1">
         <v>1</v>
@@ -15402,10 +15466,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -15413,7 +15477,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -15421,7 +15485,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -15505,16 +15569,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15525,7 +15589,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -15539,7 +15603,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -15553,7 +15617,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -15567,7 +15631,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -15581,7 +15645,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -15595,7 +15659,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -15609,7 +15673,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -15623,7 +15687,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -15637,7 +15701,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -15651,7 +15715,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -15665,7 +15729,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -15679,7 +15743,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>

--- a/config_7.20/activity_exchange_server.xlsx
+++ b/config_7.20/activity_exchange_server.xlsx
@@ -1682,10 +1682,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1745,8 +1745,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1768,59 +1829,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1836,9 +1850,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1852,38 +1873,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1952,43 +1952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2012,7 +1976,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2024,19 +2000,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2054,13 +2042,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2072,7 +2072,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,25 +2084,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2114,7 +2114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2154,47 +2154,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2219,11 +2178,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2243,11 +2237,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2257,10 +2257,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2269,133 +2269,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -5386,11 +5386,11 @@
   <dimension ref="A1:M393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E366" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C366" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K384" sqref="K384"/>
+      <selection pane="bottomRight" activeCell="I397" sqref="I397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15303,7 +15303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:10">
       <c r="A389" s="11">
         <v>388</v>
       </c>
@@ -15329,6 +15329,9 @@
         <v>291</v>
       </c>
       <c r="I389" s="1">
+        <v>1</v>
+      </c>
+      <c r="J389" s="1">
         <v>1</v>
       </c>
     </row>
@@ -15358,7 +15361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:10">
       <c r="A391" s="11">
         <v>390</v>
       </c>
@@ -15384,6 +15387,9 @@
         <v>362</v>
       </c>
       <c r="I391" s="1">
+        <v>1</v>
+      </c>
+      <c r="J391" s="1">
         <v>1</v>
       </c>
     </row>
@@ -15410,7 +15416,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:10">
       <c r="A393" s="11">
         <v>392</v>
       </c>
@@ -15436,6 +15442,9 @@
         <v>365</v>
       </c>
       <c r="I393" s="1">
+        <v>1</v>
+      </c>
+      <c r="J393" s="1">
         <v>1</v>
       </c>
     </row>
